--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 10:30:09</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:38:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:38:55</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:06:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:06:34</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:30:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:30:23</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:42:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:42:48</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:51:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:51:38</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:00:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:00:22</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:22:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:22:57</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:39:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:39:40</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:49:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:49:07</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:58:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:58:01</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:13:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:13:59</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:28:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:28:44</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:38:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:38:21</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:47:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:47:19</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:55:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:55:37</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:11:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:11:49</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:34:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:34:37</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:48:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:48:13</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:56:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:56:18</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:10:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:10:08</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:25:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:25:50</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:34:24</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:43:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:43:07</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:52:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:52:24</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:00:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:00:27</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:23:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:23:31</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:38:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:38:29</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:47:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:47:56</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:56:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:56:50</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:12:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:12:41</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:28:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:28:06</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:38:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:38:11</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:46:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:46:39</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:55:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:55:36</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:10:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:10:00</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:31:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:31:27</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:42:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:42:49</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:51:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:51:46</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:00:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:00:23</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:15:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:15:05</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:24:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:24:42</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:33:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:33:08</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:42:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:42:07</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:51:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:51:04</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:59:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:59:56</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 09:32:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 09:32:30</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 10:01:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8747,7 +8747,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.128.200,00</t>
+    <t>1.282.000,00</t>
   </si>
   <si>
     <t>Fortuna</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 10:01:07</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 10:26:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 10:26:31</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 10:39:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 10:47:43</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 10:56:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 10:56:52</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 11:11:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:22:30</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:32:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:32:42</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:42:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:42:37</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 12:51:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 12:51:19</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:01:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:01:04</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:25:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:25:55</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:46:13</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -3818,7 +3818,7 @@
     <t>-43°53'53.600"</t>
   </si>
   <si>
-    <t>330.317,15</t>
+    <t>313.586,54</t>
   </si>
   <si>
     <t xml:space="preserve">BARRAGEM DE CAPTAÇÃO </t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:46:13</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 01:57:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 01:57:05</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:11:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:11:20</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:26:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:26:44</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:36:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:36:35</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:45:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:45:19</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 02:54:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 02:54:02</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:03:09</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -10262,7 +10262,7 @@
     <t>-43°57'49.011"</t>
   </si>
   <si>
-    <t>953.000,00</t>
+    <t>1.038.010,00</t>
   </si>
   <si>
     <t>Pera Jusante</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:03:09</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:27:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:27:26</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:40:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:40:42</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:49:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:49:00</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 03:58:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 03:58:30</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:11:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:11:59</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:23:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:23:15</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:32:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:32:15</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:40:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:40:48</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:49:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:49:43</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 04:58:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 04:58:31</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:15:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:15:47</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:30:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:30:52</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:40:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:40:10</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:48:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:48:54</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 05:57:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 05:57:53</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:13:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:13:17</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:27:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:27:09</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:35:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:35:35</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:44:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:44:27</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 06:53:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 06:53:10</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:02:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:02:19</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:22:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:22:17</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:34:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:34:25</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:43:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:43:34</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 07:51:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 07:51:42</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:01:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:01:09</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:20:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:20:06</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:32:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:32:12</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:41:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:41:10</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:50:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-02.xlsx
+++ b/sigbm_download_2022-12-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 08:50:08</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 08:58:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
